--- a/string_database.xlsx
+++ b/string_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\NSTGRO 2020\TSA-Design-Algorithm-GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5846D3F-3762-44AD-8EE3-E4A1B0B897FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E890A99-A4B9-4189-BAE6-FD3C35F04FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2130" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,12 +30,6 @@
     <t>Material</t>
   </si>
   <si>
-    <t>Radius(mm)</t>
-  </si>
-  <si>
-    <t>NormalizedStiffness(N)</t>
-  </si>
-  <si>
     <t>UHMWPE</t>
   </si>
   <si>
@@ -61,6 +55,12 @@
   </si>
   <si>
     <t>UHMWPE (eight strands, braided)</t>
+  </si>
+  <si>
+    <t>Radius_mm_</t>
+  </si>
+  <si>
+    <t>NormalizedStiffness_N_</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -396,15 +396,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1.3</v>
@@ -426,7 +426,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>1.5</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>1.5</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>0.38</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>0.34</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>0.74</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>0.4</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>0.6</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>0.6</v>
